--- a/elite-data/manifest-templates/EL_template_FileAnnotationTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_FileAnnotationTemplate.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="232">
   <si>
     <t>Filename</t>
   </si>
@@ -190,7 +190,7 @@
     <t>fasle</t>
   </si>
   <si>
-    <t>Human</t>
+    <t>Cross-Species Avian</t>
   </si>
   <si>
     <t>No</t>
@@ -226,7 +226,7 @@
     <t>Not assigned</t>
   </si>
   <si>
-    <t>Non Human</t>
+    <t>Cross-Species Mammalian</t>
   </si>
   <si>
     <t>Not Assigned</t>
@@ -262,6 +262,9 @@
     <t>true</t>
   </si>
   <si>
+    <t>Human</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -284,6 +287,9 @@
   </si>
   <si>
     <t>immortalized cell line</t>
+  </si>
+  <si>
+    <t>Mouse</t>
   </si>
   <si>
     <t>anxiety-related behavior</t>
@@ -28200,6 +28206,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="J2:J1000">
       <formula1>Sheet2!$J$2:$J$6</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
+      <formula1>Sheet2!$E$2:$E$5</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$4</formula1>
     </dataValidation>
@@ -28220,9 +28229,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="M2:M1000">
       <formula1>Sheet2!$M$2:$M$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
-      <formula1>Sheet2!$E$2:$E$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
       <formula1>Sheet2!$I$2:$I$4</formula1>
@@ -28395,74 +28401,77 @@
         <v>45</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="G5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="7" t="s">
+    </row>
+    <row r="5">
+      <c r="E5" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="G5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="G6" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -28471,13 +28480,13 @@
         <v>33</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>33</v>
@@ -28485,77 +28494,77 @@
     </row>
     <row r="7">
       <c r="G7" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="G8" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="G9" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="G11" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="G12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>33</v>
@@ -28563,138 +28572,138 @@
     </row>
     <row r="13">
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="G15" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="G21" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="G23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="G26" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="G27" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="G28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="G29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>33</v>
@@ -28702,520 +28711,520 @@
     </row>
     <row r="30">
       <c r="G30" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31">
       <c r="G31" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="G32" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="G33" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
       <c r="G34" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35">
       <c r="G35" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36">
       <c r="G36" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37">
       <c r="G37" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38">
       <c r="G38" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39">
       <c r="G39" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96">
       <c r="G96" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97">
       <c r="G97" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98">
       <c r="G98" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99">
       <c r="G99" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100">
       <c r="G100" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101">
       <c r="G101" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102">
       <c r="G102" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103">
       <c r="G103" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104">
       <c r="G104" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105">
       <c r="G105" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106">
       <c r="G106" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107">
       <c r="G107" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="108">
       <c r="G108" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109">
       <c r="G109" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110">
       <c r="G110" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111">
       <c r="G111" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112">
       <c r="G112" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113">
       <c r="G113" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114">
       <c r="G114" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115">
       <c r="G115" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116">
       <c r="G116" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117">
       <c r="G117" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118">
       <c r="G118" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="119">
       <c r="G119" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120">
       <c r="G120" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121">
       <c r="G121" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122">
       <c r="G122" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123">
       <c r="G123" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/elite-data/manifest-templates/EL_template_FileAnnotationTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_FileAnnotationTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="385">
   <si>
     <t>Filename</t>
   </si>
@@ -378,31 +378,34 @@
     <t>BigBed</t>
   </si>
   <si>
+    <t>softwareTool</t>
+  </si>
+  <si>
+    <t>genomeAssembly</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>dose response study</t>
+  </si>
+  <si>
+    <t>organoid</t>
+  </si>
+  <si>
+    <t>Anas carolinensis</t>
+  </si>
+  <si>
+    <t>Not collected</t>
+  </si>
+  <si>
+    <t>autoradiography</t>
+  </si>
+  <si>
+    <t>BigWig</t>
+  </si>
+  <si>
     <t>tool</t>
-  </si>
-  <si>
-    <t>genomeAssembly</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
-    <t>dose response study</t>
-  </si>
-  <si>
-    <t>organoid</t>
-  </si>
-  <si>
-    <t>Anas carolinensis</t>
-  </si>
-  <si>
-    <t>Not collected</t>
-  </si>
-  <si>
-    <t>autoradiography</t>
-  </si>
-  <si>
-    <t>BigWig</t>
   </si>
   <si>
     <t>genomicVariants</t>
@@ -1383,6 +1386,10 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28662,7 +28669,7 @@
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
-      <formula1>Sheet2!$N$2:$N$7</formula1>
+      <formula1>Sheet2!$N$2:$N$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$20</formula1>
@@ -29040,88 +29047,91 @@
       <c r="I8" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="N8" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>36</v>
@@ -29129,30 +29139,30 @@
     </row>
     <row r="13">
       <c r="E13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>80</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>89</v>
@@ -29160,182 +29170,182 @@
     </row>
     <row r="15">
       <c r="E15" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>36</v>
@@ -29343,399 +29353,399 @@
     </row>
     <row r="30">
       <c r="E30" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>80</v>
@@ -29743,7 +29753,7 @@
     </row>
     <row r="74">
       <c r="E74" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>89</v>
@@ -29751,26 +29761,26 @@
     </row>
     <row r="75">
       <c r="E75" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78">
@@ -29778,7 +29788,7 @@
         <v>80</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79">
@@ -29786,449 +29796,449 @@
         <v>89</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
